--- a/2_semester/labs/lab_2_1_2/Book2.xlsx
+++ b/2_semester/labs/lab_2_1_2/Book2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorik\OneDrive\Документы\mipt_dgap\2_semester\labs\lab_2_1_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mipt_dgap\2_semester\labs\lab_2_1_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37587AB4-5E6A-48A8-A116-5D9D80BA504A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDE116E-D675-4501-A39B-6B07AA7EF0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F71B547-3819-46F8-B34E-C27D7E74163A}"/>
+    <workbookView xWindow="3096" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{9F71B547-3819-46F8-B34E-C27D7E74163A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE74B5AD-BBF4-4C53-963D-9838BBD8F007}">
   <dimension ref="C4:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="1">
-        <f>D5-E5</f>
+        <f t="shared" ref="F5:F43" si="0">D5-E5</f>
         <v>10.600000000000001</v>
       </c>
       <c r="G5" s="1">
@@ -551,7 +551,7 @@
         <v>10.1</v>
       </c>
       <c r="F6" s="1">
-        <f>D6-E6</f>
+        <f t="shared" si="0"/>
         <v>10.4</v>
       </c>
       <c r="G6" s="1">
@@ -568,7 +568,7 @@
         <v>1.8000000000000007</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6:L19" si="0">J6/(J6-K6)</f>
+        <f t="shared" ref="L6:L15" si="1">J6/(J6-K6)</f>
         <v>1.2465753424657535</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -583,7 +583,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F7" s="1">
-        <f>D7-E7</f>
+        <f t="shared" si="0"/>
         <v>10.3</v>
       </c>
       <c r="G7" s="1">
@@ -600,7 +600,7 @@
         <v>1.8499999999999996</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2587412587412588</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -615,7 +615,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F8" s="1">
-        <f>D8-E8</f>
+        <f t="shared" si="0"/>
         <v>10.199999999999999</v>
       </c>
       <c r="G8" s="1">
@@ -632,7 +632,7 @@
         <v>1.8999999999999986</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2567567567567566</v>
       </c>
     </row>
@@ -644,7 +644,7 @@
         <v>10.3</v>
       </c>
       <c r="F9" s="1">
-        <f>D9-E9</f>
+        <f t="shared" si="0"/>
         <v>10.099999999999998</v>
       </c>
       <c r="G9" s="1">
@@ -658,7 +658,7 @@
         <v>2.6000000000000014</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3823529411764708</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -673,7 +673,7 @@
         <v>10.3</v>
       </c>
       <c r="F10" s="1">
-        <f>D10-E10</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G10" s="1">
@@ -690,7 +690,7 @@
         <v>2.5</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3424657534246576</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -705,7 +705,7 @@
         <v>10.3</v>
       </c>
       <c r="F11" s="1">
-        <f>D11-E11</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G11" s="1">
@@ -722,7 +722,7 @@
         <v>2.2999999999999989</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3066666666666664</v>
       </c>
     </row>
@@ -734,7 +734,7 @@
         <v>10.4</v>
       </c>
       <c r="F12" s="2">
-        <f>D12-E12</f>
+        <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
       <c r="G12" s="2">
@@ -751,7 +751,7 @@
         <v>2.1999999999999993</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3013698630136985</v>
       </c>
     </row>
@@ -763,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1">
-        <f>D13-E13</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="G13" s="1">
@@ -780,7 +780,7 @@
         <v>2.1000000000000014</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2876712328767126</v>
       </c>
     </row>
@@ -792,7 +792,7 @@
         <v>10.3</v>
       </c>
       <c r="F14" s="1">
-        <f>D14-E14</f>
+        <f t="shared" si="0"/>
         <v>10.099999999999998</v>
       </c>
       <c r="G14" s="1">
@@ -809,7 +809,7 @@
         <v>2.1999999999999993</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2972972972972971</v>
       </c>
     </row>
@@ -821,7 +821,7 @@
         <v>10.5</v>
       </c>
       <c r="F15" s="1">
-        <f>D15-E15</f>
+        <f t="shared" si="0"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G15" s="1">
@@ -838,7 +838,7 @@
         <v>2.1999999999999993</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3013698630136985</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>10.6</v>
       </c>
       <c r="F16" s="1">
-        <f>D16-E16</f>
+        <f t="shared" si="0"/>
         <v>9.4</v>
       </c>
       <c r="G16" s="1">
@@ -865,7 +865,7 @@
         <v>10.7</v>
       </c>
       <c r="F17" s="1">
-        <f>D17-E17</f>
+        <f t="shared" si="0"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="G17" s="1">
@@ -880,7 +880,7 @@
         <v>10.7</v>
       </c>
       <c r="F18" s="1">
-        <f>D18-E18</f>
+        <f t="shared" si="0"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="G18" s="1">
@@ -895,7 +895,7 @@
         <v>10.7</v>
       </c>
       <c r="F19" s="1">
-        <f>D19-E19</f>
+        <f t="shared" si="0"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="G19" s="1">
@@ -910,7 +910,7 @@
         <v>10.8</v>
       </c>
       <c r="F20" s="2">
-        <f>D20-E20</f>
+        <f t="shared" si="0"/>
         <v>9.0999999999999979</v>
       </c>
       <c r="G20" s="2">
@@ -925,7 +925,7 @@
         <v>9.9</v>
       </c>
       <c r="F21" s="1">
-        <f>D21-E21</f>
+        <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
       <c r="G21" s="1">
@@ -940,7 +940,7 @@
         <v>10.3</v>
       </c>
       <c r="F22" s="1">
-        <f>D22-E22</f>
+        <f t="shared" si="0"/>
         <v>10.099999999999998</v>
       </c>
       <c r="G22" s="1">
@@ -955,7 +955,7 @@
         <v>10.4</v>
       </c>
       <c r="F23" s="1">
-        <f>D23-E23</f>
+        <f t="shared" si="0"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G23" s="1">
@@ -970,7 +970,7 @@
         <v>10.5</v>
       </c>
       <c r="F24" s="1">
-        <f>D24-E24</f>
+        <f t="shared" si="0"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G24" s="1">
@@ -985,7 +985,7 @@
         <v>10.6</v>
       </c>
       <c r="F25" s="1">
-        <f>D25-E25</f>
+        <f t="shared" si="0"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G25" s="1">
@@ -1000,7 +1000,7 @@
         <v>10.6</v>
       </c>
       <c r="F26" s="1">
-        <f>D26-E26</f>
+        <f t="shared" si="0"/>
         <v>9.4</v>
       </c>
       <c r="G26" s="1">
@@ -1015,7 +1015,7 @@
         <v>10.7</v>
       </c>
       <c r="F27" s="1">
-        <f>D27-E27</f>
+        <f t="shared" si="0"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="G27" s="1">
@@ -1030,7 +1030,7 @@
         <v>10.7</v>
       </c>
       <c r="F28" s="1">
-        <f>D28-E28</f>
+        <f t="shared" si="0"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="G28" s="1">
@@ -1045,7 +1045,7 @@
         <v>10.7</v>
       </c>
       <c r="F29" s="1">
-        <f>D29-E29</f>
+        <f t="shared" si="0"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="G29" s="1">
@@ -1060,7 +1060,7 @@
         <v>10.8</v>
       </c>
       <c r="F30" s="2">
-        <f>D30-E30</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G30" s="2">
@@ -1075,7 +1075,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="1">
-        <f>D31-E31</f>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="G31" s="1">
@@ -1090,7 +1090,7 @@
         <v>10.3</v>
       </c>
       <c r="F32" s="1">
-        <f>D32-E32</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G32" s="1">
@@ -1105,7 +1105,7 @@
         <v>10.4</v>
       </c>
       <c r="F33" s="1">
-        <f>D33-E33</f>
+        <f t="shared" si="0"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G33" s="1">
@@ -1120,7 +1120,7 @@
         <v>10.4</v>
       </c>
       <c r="F34" s="1">
-        <f>D34-E34</f>
+        <f t="shared" si="0"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G34" s="1">
@@ -1135,7 +1135,7 @@
         <v>10.5</v>
       </c>
       <c r="F35" s="1">
-        <f>D35-E35</f>
+        <f t="shared" si="0"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G35" s="1">
@@ -1150,7 +1150,7 @@
         <v>10.6</v>
       </c>
       <c r="F36" s="1">
-        <f>D36-E36</f>
+        <f t="shared" si="0"/>
         <v>9.4</v>
       </c>
       <c r="G36" s="1">
@@ -1165,7 +1165,7 @@
         <v>10.6</v>
       </c>
       <c r="F37" s="1">
-        <f>D37-E37</f>
+        <f t="shared" si="0"/>
         <v>9.2999999999999989</v>
       </c>
       <c r="G37" s="1">
@@ -1180,7 +1180,7 @@
         <v>10.6</v>
       </c>
       <c r="F38" s="2">
-        <f>D38-E38</f>
+        <f t="shared" si="0"/>
         <v>9.2999999999999989</v>
       </c>
       <c r="G38" s="2">
@@ -1195,7 +1195,7 @@
         <v>9.9</v>
       </c>
       <c r="F39" s="3">
-        <f>D39-E39</f>
+        <f t="shared" si="0"/>
         <v>10.6</v>
       </c>
       <c r="G39" s="3">
@@ -1210,7 +1210,7 @@
         <v>10.4</v>
       </c>
       <c r="F40" s="3">
-        <f>D40-E40</f>
+        <f t="shared" si="0"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G40" s="3">
@@ -1225,7 +1225,7 @@
         <v>10.5</v>
       </c>
       <c r="F41" s="3">
-        <f>D41-E41</f>
+        <f t="shared" si="0"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G41" s="3">
@@ -1240,7 +1240,7 @@
         <v>10.6</v>
       </c>
       <c r="F42" s="3">
-        <f>D42-E42</f>
+        <f t="shared" si="0"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G42" s="3">
@@ -1255,7 +1255,7 @@
         <v>10.6</v>
       </c>
       <c r="F43" s="3">
-        <f>D43-E43</f>
+        <f t="shared" si="0"/>
         <v>9.4</v>
       </c>
       <c r="G43" s="3">
@@ -1270,7 +1270,7 @@
         <v>10.6</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" ref="F44:F91" si="1">D44-E44</f>
+        <f t="shared" ref="F44:F91" si="2">D44-E44</f>
         <v>9.4</v>
       </c>
       <c r="G44" s="3">
@@ -1285,7 +1285,7 @@
         <v>10.6</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4</v>
       </c>
       <c r="G45" s="3">
@@ -1300,7 +1300,7 @@
         <v>10.6</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4</v>
       </c>
       <c r="G46" s="4">
@@ -1315,7 +1315,7 @@
         <v>9.9</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.6</v>
       </c>
       <c r="G47" s="1">
@@ -1330,7 +1330,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.199999999999999</v>
       </c>
       <c r="G48" s="1">
@@ -1345,7 +1345,7 @@
         <v>10.3</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G49" s="1">
@@ -1360,7 +1360,7 @@
         <v>10.4</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G50" s="1">
@@ -1375,7 +1375,7 @@
         <v>10.4</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G51" s="1">
@@ -1390,7 +1390,7 @@
         <v>10.4</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G52" s="1">
@@ -1405,7 +1405,7 @@
         <v>10.4</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G53" s="1">
@@ -1420,7 +1420,7 @@
         <v>10.4</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G54" s="1">
@@ -1435,7 +1435,7 @@
         <v>10.3</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8999999999999986</v>
       </c>
       <c r="G55" s="2">
@@ -1450,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="G56" s="1">
@@ -1465,7 +1465,7 @@
         <v>10.3</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G57" s="1">
@@ -1480,7 +1480,7 @@
         <v>10.4</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G58" s="1">
@@ -1495,7 +1495,7 @@
         <v>10.4</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G59" s="1">
@@ -1510,7 +1510,7 @@
         <v>10.4</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G60" s="1">
@@ -1525,7 +1525,7 @@
         <v>10.4</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G61" s="1">
@@ -1540,7 +1540,7 @@
         <v>10.4</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G62" s="2">
@@ -1555,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="G63" s="1">
@@ -1570,7 +1570,7 @@
         <v>10.4</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9</v>
       </c>
       <c r="G64" s="1">
@@ -1585,7 +1585,7 @@
         <v>10.5</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G65" s="1">
@@ -1600,7 +1600,7 @@
         <v>10.6</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G66" s="1">
@@ -1615,7 +1615,7 @@
         <v>10.6</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G67" s="1">
@@ -1630,7 +1630,7 @@
         <v>10.6</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G68" s="1">
@@ -1645,7 +1645,7 @@
         <v>10.6</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G69" s="2">
@@ -1660,7 +1660,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="G70" s="1">
@@ -1675,7 +1675,7 @@
         <v>10.4</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G71" s="1">
@@ -1690,7 +1690,7 @@
         <v>10.5</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G72" s="1">
@@ -1705,7 +1705,7 @@
         <v>10.5</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G73" s="1">
@@ -1720,7 +1720,7 @@
         <v>10.6</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G74" s="1">
@@ -1735,7 +1735,7 @@
         <v>10.6</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4</v>
       </c>
       <c r="G75" s="1">
@@ -1750,7 +1750,7 @@
         <v>10.6</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.4</v>
       </c>
       <c r="G76" s="2">
@@ -1765,7 +1765,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="1"/>
+        <f>D77-E77</f>
         <v>10.5</v>
       </c>
       <c r="G77" s="1">
@@ -1780,7 +1780,7 @@
         <v>10.4</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9</v>
       </c>
       <c r="G78" s="1">
@@ -1795,7 +1795,7 @@
         <v>10.4</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G79" s="1">
@@ -1810,7 +1810,7 @@
         <v>10.5</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="G80" s="1">
@@ -1825,7 +1825,7 @@
         <v>10.5</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="G81" s="1">
@@ -1840,7 +1840,7 @@
         <v>10.5</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G82" s="1">
@@ -1855,7 +1855,7 @@
         <v>10.5</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G83" s="2">
@@ -1870,7 +1870,7 @@
         <v>10</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="G84" s="1">
@@ -1885,7 +1885,7 @@
         <v>10.3</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G85" s="1">
@@ -1900,7 +1900,7 @@
         <v>10.4</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G86" s="1">
@@ -1915,7 +1915,7 @@
         <v>10.5</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="G87" s="1">
@@ -1930,7 +1930,7 @@
         <v>10.5</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G88" s="1">
@@ -1945,7 +1945,7 @@
         <v>10.5</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G89" s="1">
@@ -1960,7 +1960,7 @@
         <v>10.6</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G90" s="1">
@@ -1975,7 +1975,7 @@
         <v>10.6</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G91" s="1">

--- a/2_semester/labs/lab_2_1_2/Book2.xlsx
+++ b/2_semester/labs/lab_2_1_2/Book2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mipt_dgap\2_semester\labs\lab_2_1_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\mipt_dgap\2_semester\labs\lab_2_1_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDE116E-D675-4501-A39B-6B07AA7EF0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEB2900-1F08-456D-BD8E-9263B84D38B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3096" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{9F71B547-3819-46F8-B34E-C27D7E74163A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F71B547-3819-46F8-B34E-C27D7E74163A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Измерение t_T</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>(gamma - avg)^2</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>sigma rnd</t>
+  </si>
+  <si>
+    <t>sigma sys</t>
+  </si>
+  <si>
+    <t>sigma full</t>
   </si>
 </sst>
 </file>
@@ -467,22 +485,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE74B5AD-BBF4-4C53-963D-9838BBD8F007}">
   <dimension ref="C4:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="35.21875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="35.28515625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>20.6</v>
       </c>
@@ -543,7 +563,7 @@
         <v>1.2222222222222221</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <v>20.5</v>
       </c>
@@ -575,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>20.5</v>
       </c>
@@ -607,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -636,7 +656,7 @@
         <v>1.2567567567567566</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -665,7 +685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>20.3</v>
       </c>
@@ -697,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>20.3</v>
       </c>
@@ -726,7 +746,7 @@
         <v>1.3066666666666664</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <v>20.3</v>
       </c>
@@ -755,7 +775,7 @@
         <v>1.3013698630136985</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>20.5</v>
       </c>
@@ -784,7 +804,7 @@
         <v>1.2876712328767126</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -813,7 +833,7 @@
         <v>1.2972972972972971</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -842,7 +862,7 @@
         <v>1.3013698630136985</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>20</v>
       </c>
@@ -857,7 +877,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <v>20</v>
       </c>
@@ -872,7 +892,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -887,7 +907,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -901,8 +921,17 @@
       <c r="G19" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="K19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <v>19.899999999999999</v>
       </c>
@@ -916,8 +945,19 @@
       <c r="G20" s="2">
         <v>170</v>
       </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="K20" s="1">
+        <f>AVERAGE(L20:L30)</f>
+        <v>1.2821136256478722</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="M20" s="1">
+        <f>(L20-$K$20)^2</f>
+        <v>3.5869802042939767E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>20.5</v>
       </c>
@@ -931,8 +971,15 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L21" s="1">
+        <v>1.2465753424657535</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" ref="M21:M29" si="2">(L21-$K$20)^2</f>
+        <v>1.2629695715324618E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -946,8 +993,15 @@
       <c r="G22" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L22" s="1">
+        <v>1.2587412587412588</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="2"/>
+        <v>5.4626753481736121E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>20.2</v>
       </c>
@@ -961,8 +1015,15 @@
       <c r="G23" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L23" s="1">
+        <v>1.2567567567567566</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4297079996122907E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -976,8 +1037,15 @@
       <c r="G24" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L24" s="1">
+        <v>1.3424657534246576</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>3.642379327185424E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -991,8 +1059,15 @@
       <c r="G25" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L25" s="1">
+        <v>1.3066666666666664</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="2"/>
+        <v>6.0285182327058989E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" s="1">
         <v>20</v>
       </c>
@@ -1006,8 +1081,15 @@
       <c r="G26" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L26" s="1">
+        <v>1.3013698630136985</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7080267748904375E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" s="1">
         <v>20</v>
       </c>
@@ -1021,8 +1103,15 @@
       <c r="G27" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L27" s="1">
+        <v>1.2876712328767126</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0886998110058574E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="1">
         <v>20</v>
       </c>
@@ -1036,8 +1125,15 @@
       <c r="G28" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L28" s="1">
+        <v>1.2972972972972971</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3054388475754985E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -1051,8 +1147,15 @@
       <c r="G29" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L29" s="1">
+        <v>1.3013698630136985</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="2"/>
+        <v>3.7080267748904375E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <v>19.8</v>
       </c>
@@ -1066,8 +1169,15 @@
       <c r="G30" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="1">
+        <f>SUM(M20:M29)</f>
+        <v>1.1287455498906739E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D31" s="1">
         <v>20.5</v>
       </c>
@@ -1081,8 +1191,15 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M31" s="1">
+        <f>SQRT(M30/10)</f>
+        <v>3.3596808626574548E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" s="1">
         <v>20.3</v>
       </c>
@@ -1097,7 +1214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <v>20.2</v>
       </c>
@@ -1111,8 +1228,15 @@
       <c r="G33" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="1">
+        <f>K20*SQRT((0.05)^2+(0.1/10)^2+(0.1/2.5)^2)</f>
+        <v>8.3090459537194267E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <v>20.2</v>
       </c>
@@ -1127,7 +1251,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:13" ht="30" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1141,8 +1265,15 @@
       <c r="G35" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="L35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="1">
+        <f>SQRT(M31^2+M33^2)</f>
+        <v>8.9625721843635889E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <v>20</v>
       </c>
@@ -1156,8 +1287,12 @@
       <c r="G36" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="M36" s="1">
+        <f>M35/K20</f>
+        <v>6.990466371367561E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -1172,7 +1307,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
         <v>19.899999999999999</v>
       </c>
@@ -1187,7 +1322,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D39" s="3">
         <v>20.5</v>
       </c>
@@ -1202,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" s="3">
         <v>20.2</v>
       </c>
@@ -1217,7 +1352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D41" s="3">
         <v>20.100000000000001</v>
       </c>
@@ -1232,7 +1367,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D42" s="3">
         <v>20.100000000000001</v>
       </c>
@@ -1247,7 +1382,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D43" s="3">
         <v>20</v>
       </c>
@@ -1262,7 +1397,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" s="3">
         <v>20</v>
       </c>
@@ -1270,14 +1405,14 @@
         <v>10.6</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" ref="F44:F91" si="2">D44-E44</f>
+        <f t="shared" ref="F44:F91" si="3">D44-E44</f>
         <v>9.4</v>
       </c>
       <c r="G44" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D45" s="3">
         <v>20</v>
       </c>
@@ -1285,14 +1420,14 @@
         <v>10.6</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4</v>
       </c>
       <c r="G45" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D46" s="4">
         <v>20</v>
       </c>
@@ -1300,14 +1435,14 @@
         <v>10.6</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4</v>
       </c>
       <c r="G46" s="4">
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D47" s="1">
         <v>20.5</v>
       </c>
@@ -1315,14 +1450,14 @@
         <v>9.9</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.6</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D48" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -1330,14 +1465,14 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.199999999999999</v>
       </c>
       <c r="G48" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" s="1">
         <v>20.3</v>
       </c>
@@ -1345,14 +1480,14 @@
         <v>10.3</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G49" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D50" s="1">
         <v>20.2</v>
       </c>
@@ -1360,14 +1495,14 @@
         <v>10.4</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G50" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D51" s="1">
         <v>20.2</v>
       </c>
@@ -1375,14 +1510,14 @@
         <v>10.4</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G51" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D52" s="1">
         <v>20.2</v>
       </c>
@@ -1390,14 +1525,14 @@
         <v>10.4</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G52" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D53" s="1">
         <v>20.2</v>
       </c>
@@ -1405,14 +1540,14 @@
         <v>10.4</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G53" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D54" s="1">
         <v>20.2</v>
       </c>
@@ -1420,14 +1555,14 @@
         <v>10.4</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G54" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <v>20.2</v>
       </c>
@@ -1435,14 +1570,14 @@
         <v>10.3</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.8999999999999986</v>
       </c>
       <c r="G55" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D56" s="1">
         <v>20.5</v>
       </c>
@@ -1450,14 +1585,14 @@
         <v>10</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D57" s="1">
         <v>20.3</v>
       </c>
@@ -1465,14 +1600,14 @@
         <v>10.3</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G57" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D58" s="1">
         <v>20.2</v>
       </c>
@@ -1480,14 +1615,14 @@
         <v>10.4</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G58" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D59" s="1">
         <v>20.2</v>
       </c>
@@ -1495,14 +1630,14 @@
         <v>10.4</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G59" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D60" s="1">
         <v>20.2</v>
       </c>
@@ -1510,14 +1645,14 @@
         <v>10.4</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G60" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D61" s="1">
         <v>20.2</v>
       </c>
@@ -1525,14 +1660,14 @@
         <v>10.4</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G61" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D62" s="2">
         <v>20.2</v>
       </c>
@@ -1540,14 +1675,14 @@
         <v>10.4</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G62" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D63" s="1">
         <v>20.5</v>
       </c>
@@ -1555,14 +1690,14 @@
         <v>10</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D64" s="1">
         <v>20.3</v>
       </c>
@@ -1570,14 +1705,14 @@
         <v>10.4</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9</v>
       </c>
       <c r="G64" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1585,14 +1720,14 @@
         <v>10.5</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G65" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1600,14 +1735,14 @@
         <v>10.6</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G66" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D67" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1615,14 +1750,14 @@
         <v>10.6</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G67" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D68" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1630,14 +1765,14 @@
         <v>10.6</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G68" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D69" s="2">
         <v>20.100000000000001</v>
       </c>
@@ -1645,14 +1780,14 @@
         <v>10.6</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G69" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D70" s="1">
         <v>20.5</v>
       </c>
@@ -1660,14 +1795,14 @@
         <v>10</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D71" s="1">
         <v>20.2</v>
       </c>
@@ -1675,14 +1810,14 @@
         <v>10.4</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G71" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D72" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1690,14 +1825,14 @@
         <v>10.5</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G72" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D73" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1705,14 +1840,14 @@
         <v>10.5</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G73" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D74" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1720,14 +1855,14 @@
         <v>10.6</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G74" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D75" s="1">
         <v>20</v>
       </c>
@@ -1735,14 +1870,14 @@
         <v>10.6</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4</v>
       </c>
       <c r="G75" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D76" s="2">
         <v>20</v>
       </c>
@@ -1750,14 +1885,14 @@
         <v>10.6</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4</v>
       </c>
       <c r="G76" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D77" s="1">
         <v>20.5</v>
       </c>
@@ -1772,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D78" s="1">
         <v>20.3</v>
       </c>
@@ -1780,14 +1915,14 @@
         <v>10.4</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9</v>
       </c>
       <c r="G78" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D79" s="1">
         <v>20.2</v>
       </c>
@@ -1795,14 +1930,14 @@
         <v>10.4</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G79" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D80" s="1">
         <v>20.2</v>
       </c>
@@ -1810,14 +1945,14 @@
         <v>10.5</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="G80" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D81" s="1">
         <v>20.2</v>
       </c>
@@ -1825,14 +1960,14 @@
         <v>10.5</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="G81" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D82" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1840,14 +1975,14 @@
         <v>10.5</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G82" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D83" s="2">
         <v>20.100000000000001</v>
       </c>
@@ -1855,14 +1990,14 @@
         <v>10.5</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G83" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D84" s="1">
         <v>20.5</v>
       </c>
@@ -1870,14 +2005,14 @@
         <v>10</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
       <c r="G84" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D85" s="1">
         <v>20.3</v>
       </c>
@@ -1885,14 +2020,14 @@
         <v>10.3</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G85" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D86" s="1">
         <v>20.2</v>
       </c>
@@ -1900,14 +2035,14 @@
         <v>10.4</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G86" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D87" s="1">
         <v>20.2</v>
       </c>
@@ -1915,14 +2050,14 @@
         <v>10.5</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="G87" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D88" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1930,14 +2065,14 @@
         <v>10.5</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G88" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D89" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1945,14 +2080,14 @@
         <v>10.5</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G89" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D90" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1960,14 +2095,14 @@
         <v>10.6</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G90" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D91" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1975,14 +2110,14 @@
         <v>10.6</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G91" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F92" s="1" t="s">
         <v>14</v>
       </c>

--- a/2_semester/labs/lab_2_1_2/Book2.xlsx
+++ b/2_semester/labs/lab_2_1_2/Book2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\mipt_dgap\2_semester\labs\lab_2_1_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEB2900-1F08-456D-BD8E-9263B84D38B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206FEBB5-1FD9-4B1A-8FEF-03B688B95AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F71B547-3819-46F8-B34E-C27D7E74163A}"/>
+    <workbookView xWindow="29580" yWindow="675" windowWidth="21600" windowHeight="11385" xr2:uid="{9F71B547-3819-46F8-B34E-C27D7E74163A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -162,6 +162,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -483,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE74B5AD-BBF4-4C53-963D-9838BBD8F007}">
-  <dimension ref="C4:M92"/>
+  <dimension ref="C4:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,14 +501,16 @@
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.85546875" style="1"/>
     <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="1"/>
-    <col min="13" max="13" width="35.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="10" width="37.28515625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="35.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,23 +526,23 @@
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15" ht="60" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>20.6</v>
       </c>
@@ -548,22 +556,30 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,F5:G12)</f>
+        <v>10.6,0,10.4,20,10.3,40,10.2,55,10.1,70,10,100,10,120,9.9,160</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,G5:G12)</f>
+        <v>0,20,40,55,70,100,120,160</v>
+      </c>
+      <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>9.9</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <f>16.2-14.4</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="L5" s="1">
-        <f>J5/(J5-K5)</f>
+      <c r="N5" s="1">
+        <f>L5/(L5-M5)</f>
         <v>1.2222222222222221</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <v>20.5</v>
       </c>
@@ -577,25 +593,25 @@
       <c r="G6" s="1">
         <v>20</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>9.1</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <f>16.1-14.3</f>
         <v>1.8000000000000007</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" ref="L6:L15" si="1">J6/(J6-K6)</f>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6:N15" si="1">L6/(L6-M6)</f>
         <v>1.2465753424657535</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>20.5</v>
       </c>
@@ -609,25 +625,25 @@
       <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>9</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <f>16.2-14.35</f>
         <v>1.8499999999999996</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <f t="shared" si="1"/>
         <v>1.2587412587412588</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -641,22 +657,22 @@
       <c r="G8" s="1">
         <v>55</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <v>4</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <f>16.2-14.3</f>
         <v>1.8999999999999986</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <f t="shared" si="1"/>
         <v>1.2567567567567566</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -670,22 +686,22 @@
       <c r="G9" s="1">
         <v>70</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>9.4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <f>16.6-14</f>
         <v>2.6000000000000014</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <f t="shared" si="1"/>
         <v>1.3823529411764708</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>20.3</v>
       </c>
@@ -699,25 +715,25 @@
       <c r="G10" s="1">
         <v>100</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <f>16.5-14</f>
         <v>2.5</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="1"/>
         <v>1.3424657534246576</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>20.3</v>
       </c>
@@ -731,22 +747,22 @@
       <c r="G11" s="1">
         <v>120</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>6</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <f>16.4-14.1</f>
         <v>2.2999999999999989</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="1"/>
         <v>1.3066666666666664</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <v>20.3</v>
       </c>
@@ -760,22 +776,24 @@
       <c r="G12" s="2">
         <v>160</v>
       </c>
-      <c r="I12" s="1">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="1">
         <v>7</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>9.5</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <f>16.4-14.2</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <f t="shared" si="1"/>
         <v>1.3013698630136985</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15" ht="60" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>20.5</v>
       </c>
@@ -783,28 +801,36 @@
         <v>10</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="0"/>
+        <f>D13-E13</f>
         <v>10.5</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1">
+      <c r="H13" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,F13:F20)</f>
+        <v>10.5,10.1,9.6,9.4,9.3,9.2,9.2,9.1</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,G13:G20)</f>
+        <v>0,20,45,75,90,105,140,170</v>
+      </c>
+      <c r="K13" s="1">
         <v>8</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>9.4</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <f>16.3-14.2</f>
         <v>2.1000000000000014</v>
       </c>
-      <c r="L13" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="1"/>
         <v>1.2876712328767126</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -818,22 +844,22 @@
       <c r="G14" s="1">
         <v>20</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <v>9</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>9.6</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <f>16.4-14.2</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="L14" s="1">
+      <c r="N14" s="1">
         <f t="shared" si="1"/>
         <v>1.2972972972972971</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -847,22 +873,22 @@
       <c r="G15" s="1">
         <v>45</v>
       </c>
-      <c r="I15" s="1">
+      <c r="K15" s="1">
         <v>10</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <v>9.5</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
         <f>16.4-14.2</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="L15" s="1">
+      <c r="N15" s="1">
         <f t="shared" si="1"/>
         <v>1.3013698630136985</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>20</v>
       </c>
@@ -877,7 +903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <v>20</v>
       </c>
@@ -892,7 +918,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -907,7 +933,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -921,17 +947,17 @@
       <c r="G19" s="1">
         <v>140</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <v>19.899999999999999</v>
       </c>
@@ -945,19 +971,21 @@
       <c r="G20" s="2">
         <v>170</v>
       </c>
-      <c r="K20" s="1">
-        <f>AVERAGE(L20:L30)</f>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="M20" s="1">
+        <f>AVERAGE(N20:N30)</f>
         <v>1.2821136256478722</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="1">
         <v>1.2222222222222221</v>
       </c>
-      <c r="M20" s="1">
-        <f>(L20-$K$20)^2</f>
+      <c r="O20" s="1">
+        <f>(N20-$M$20)^2</f>
         <v>3.5869802042939767E-3</v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:15" ht="75" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>20.5</v>
       </c>
@@ -971,15 +999,23 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="L21" s="1">
+      <c r="H21" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,F21:F30)</f>
+        <v>10.6,10.1,9.8,9.6,9.5,9.4,9.3,9.3,9.2,9</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,G21:G30)</f>
+        <v>0,30,50,70,100,120,150,180,210,250</v>
+      </c>
+      <c r="N21" s="1">
         <v>1.2465753424657535</v>
       </c>
-      <c r="M21" s="1">
-        <f t="shared" ref="M21:M29" si="2">(L21-$K$20)^2</f>
+      <c r="O21" s="1">
+        <f t="shared" ref="O21:O29" si="2">(N21-$M$20)^2</f>
         <v>1.2629695715324618E-3</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -993,15 +1029,15 @@
       <c r="G22" s="1">
         <v>30</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="1">
         <v>1.2587412587412588</v>
       </c>
-      <c r="M22" s="1">
+      <c r="O22" s="1">
         <f t="shared" si="2"/>
         <v>5.4626753481736121E-4</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>20.2</v>
       </c>
@@ -1015,15 +1051,15 @@
       <c r="G23" s="1">
         <v>50</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="1">
         <v>1.2567567567567566</v>
       </c>
-      <c r="M23" s="1">
+      <c r="O23" s="1">
         <f t="shared" si="2"/>
         <v>6.4297079996122907E-4</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1037,15 +1073,15 @@
       <c r="G24" s="1">
         <v>70</v>
       </c>
-      <c r="L24" s="1">
+      <c r="N24" s="1">
         <v>1.3424657534246576</v>
       </c>
-      <c r="M24" s="1">
+      <c r="O24" s="1">
         <f t="shared" si="2"/>
         <v>3.642379327185424E-3</v>
       </c>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1059,15 +1095,15 @@
       <c r="G25" s="1">
         <v>100</v>
       </c>
-      <c r="L25" s="1">
+      <c r="N25" s="1">
         <v>1.3066666666666664</v>
       </c>
-      <c r="M25" s="1">
+      <c r="O25" s="1">
         <f t="shared" si="2"/>
         <v>6.0285182327058989E-4</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D26" s="1">
         <v>20</v>
       </c>
@@ -1081,15 +1117,15 @@
       <c r="G26" s="1">
         <v>120</v>
       </c>
-      <c r="L26" s="1">
+      <c r="N26" s="1">
         <v>1.3013698630136985</v>
       </c>
-      <c r="M26" s="1">
+      <c r="O26" s="1">
         <f t="shared" si="2"/>
         <v>3.7080267748904375E-4</v>
       </c>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D27" s="1">
         <v>20</v>
       </c>
@@ -1103,15 +1139,15 @@
       <c r="G27" s="1">
         <v>150</v>
       </c>
-      <c r="L27" s="1">
+      <c r="N27" s="1">
         <v>1.2876712328767126</v>
       </c>
-      <c r="M27" s="1">
+      <c r="O27" s="1">
         <f t="shared" si="2"/>
         <v>3.0886998110058574E-5</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D28" s="1">
         <v>20</v>
       </c>
@@ -1125,15 +1161,15 @@
       <c r="G28" s="1">
         <v>180</v>
       </c>
-      <c r="L28" s="1">
+      <c r="N28" s="1">
         <v>1.2972972972972971</v>
       </c>
-      <c r="M28" s="1">
+      <c r="O28" s="1">
         <f t="shared" si="2"/>
         <v>2.3054388475754985E-4</v>
       </c>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D29" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -1147,15 +1183,15 @@
       <c r="G29" s="1">
         <v>210</v>
       </c>
-      <c r="L29" s="1">
+      <c r="N29" s="1">
         <v>1.3013698630136985</v>
       </c>
-      <c r="M29" s="1">
+      <c r="O29" s="1">
         <f t="shared" si="2"/>
         <v>3.7080267748904375E-4</v>
       </c>
     </row>
-    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <v>19.8</v>
       </c>
@@ -1169,15 +1205,17 @@
       <c r="G30" s="2">
         <v>250</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="N30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="1">
-        <f>SUM(M20:M29)</f>
+      <c r="O30" s="1">
+        <f>SUM(O20:O29)</f>
         <v>1.1287455498906739E-2</v>
       </c>
     </row>
-    <row r="31" spans="4:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:15" ht="60" x14ac:dyDescent="0.25">
       <c r="D31" s="1">
         <v>20.5</v>
       </c>
@@ -1191,15 +1229,23 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="H31" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,F31:F38)</f>
+        <v>10.5,10,9.8,9.8,9.6,9.4,9.3,9.3</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,G31:G38)</f>
+        <v>0,40,60,80,120,180,240,300</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M31" s="1">
-        <f>SQRT(M30/10)</f>
+      <c r="O31" s="1">
+        <f>SQRT(O30/10)</f>
         <v>3.3596808626574548E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D32" s="1">
         <v>20.3</v>
       </c>
@@ -1214,7 +1260,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="4:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <v>20.2</v>
       </c>
@@ -1228,15 +1274,15 @@
       <c r="G33" s="1">
         <v>60</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="1">
-        <f>K20*SQRT((0.05)^2+(0.1/10)^2+(0.1/2.5)^2)</f>
+      <c r="O33" s="1">
+        <f>M20*SQRT((0.05)^2+(0.1/10)^2+(0.1/2.5)^2)</f>
         <v>8.3090459537194267E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <v>20.2</v>
       </c>
@@ -1251,7 +1297,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1265,15 +1311,15 @@
       <c r="G35" s="1">
         <v>120</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M35" s="1">
-        <f>SQRT(M31^2+M33^2)</f>
+      <c r="O35" s="1">
+        <f>SQRT(O31^2+O33^2)</f>
         <v>8.9625721843635889E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <v>20</v>
       </c>
@@ -1287,12 +1333,12 @@
       <c r="G36" s="1">
         <v>180</v>
       </c>
-      <c r="M36" s="1">
-        <f>M35/K20</f>
+      <c r="O36" s="1">
+        <f>O35/M20</f>
         <v>6.990466371367561E-2</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -1307,7 +1353,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
         <v>19.899999999999999</v>
       </c>
@@ -1321,8 +1367,10 @@
       <c r="G38" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D39" s="3">
         <v>20.5</v>
       </c>
@@ -1336,8 +1384,10 @@
       <c r="G39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D40" s="3">
         <v>20.2</v>
       </c>
@@ -1351,8 +1401,10 @@
       <c r="G40" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D41" s="3">
         <v>20.100000000000001</v>
       </c>
@@ -1366,8 +1418,10 @@
       <c r="G41" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D42" s="3">
         <v>20.100000000000001</v>
       </c>
@@ -1381,8 +1435,10 @@
       <c r="G42" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D43" s="3">
         <v>20</v>
       </c>
@@ -1396,8 +1452,10 @@
       <c r="G43" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D44" s="3">
         <v>20</v>
       </c>
@@ -1411,8 +1469,10 @@
       <c r="G44" s="3">
         <v>150</v>
       </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D45" s="3">
         <v>20</v>
       </c>
@@ -1426,8 +1486,10 @@
       <c r="G45" s="3">
         <v>180</v>
       </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D46" s="4">
         <v>20</v>
       </c>
@@ -1441,8 +1503,10 @@
       <c r="G46" s="4">
         <v>240</v>
       </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="4:15" ht="60" x14ac:dyDescent="0.25">
       <c r="D47" s="1">
         <v>20.5</v>
       </c>
@@ -1456,8 +1520,16 @@
       <c r="G47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H47" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,F47:F55)</f>
+        <v>10.6,10.2,10,9.8,9.8,9.8,9.8,9.8,9.9</v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,G47:G55)</f>
+        <v>0,20,45,70,100,120,150,180,240</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D48" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -1472,7 +1544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D49" s="1">
         <v>20.3</v>
       </c>
@@ -1487,7 +1559,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D50" s="1">
         <v>20.2</v>
       </c>
@@ -1502,7 +1574,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D51" s="1">
         <v>20.2</v>
       </c>
@@ -1517,7 +1589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D52" s="1">
         <v>20.2</v>
       </c>
@@ -1532,7 +1604,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D53" s="1">
         <v>20.2</v>
       </c>
@@ -1547,7 +1619,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D54" s="1">
         <v>20.2</v>
       </c>
@@ -1562,7 +1634,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <v>20.2</v>
       </c>
@@ -1576,8 +1648,10 @@
       <c r="G55" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="4:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D56" s="1">
         <v>20.5</v>
       </c>
@@ -1591,8 +1665,16 @@
       <c r="G56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,F56:F62)</f>
+        <v>10.5,10,9.8,9.8,9.8,9.8,9.8</v>
+      </c>
+      <c r="I56" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,G56:G62)</f>
+        <v>0,30,60,90,120,180,240</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D57" s="1">
         <v>20.3</v>
       </c>
@@ -1607,7 +1689,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D58" s="1">
         <v>20.2</v>
       </c>
@@ -1622,7 +1704,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D59" s="1">
         <v>20.2</v>
       </c>
@@ -1637,7 +1719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D60" s="1">
         <v>20.2</v>
       </c>
@@ -1652,7 +1734,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D61" s="1">
         <v>20.2</v>
       </c>
@@ -1667,7 +1749,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D62" s="2">
         <v>20.2</v>
       </c>
@@ -1681,8 +1763,10 @@
       <c r="G62" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="4:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D63" s="1">
         <v>20.5</v>
       </c>
@@ -1696,8 +1780,16 @@
       <c r="G63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,F63:F69)</f>
+        <v>10.5,9.9,9.6,9.5,9.5,9.5,9.5</v>
+      </c>
+      <c r="I63" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,G63:G69)</f>
+        <v>0,30,60,90,120,180,240</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D64" s="1">
         <v>20.3</v>
       </c>
@@ -1712,7 +1804,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D65" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1727,7 +1819,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D66" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1742,7 +1834,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D67" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1757,7 +1849,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D68" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1772,7 +1864,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D69" s="2">
         <v>20.100000000000001</v>
       </c>
@@ -1786,8 +1878,10 @@
       <c r="G69" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="4:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D70" s="1">
         <v>20.5</v>
       </c>
@@ -1801,8 +1895,16 @@
       <c r="G70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,F70:F76)</f>
+        <v>10.5,9.8,9.6,9.6,9.5,9.4,9.4</v>
+      </c>
+      <c r="I70" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,G70:G76)</f>
+        <v>0,30,60,90,120,180,240</v>
+      </c>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D71" s="1">
         <v>20.2</v>
       </c>
@@ -1817,7 +1919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D72" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1832,7 +1934,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D73" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1847,7 +1949,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D74" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1862,7 +1964,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D75" s="1">
         <v>20</v>
       </c>
@@ -1877,7 +1979,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D76" s="2">
         <v>20</v>
       </c>
@@ -1891,8 +1993,10 @@
       <c r="G76" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="77" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="4:9" ht="45" x14ac:dyDescent="0.25">
       <c r="D77" s="1">
         <v>20.5</v>
       </c>
@@ -1906,8 +2010,16 @@
       <c r="G77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H77" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,F77:F83)</f>
+        <v>10.5,9.9,9.8,9.7,9.7,9.6,9.6</v>
+      </c>
+      <c r="I77" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,G77:G83)</f>
+        <v>0,30,60,90,120,180,240</v>
+      </c>
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D78" s="1">
         <v>20.3</v>
       </c>
@@ -1922,7 +2034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D79" s="1">
         <v>20.2</v>
       </c>
@@ -1937,7 +2049,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D80" s="1">
         <v>20.2</v>
       </c>
@@ -1952,7 +2064,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D81" s="1">
         <v>20.2</v>
       </c>
@@ -1967,7 +2079,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D82" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1982,7 +2094,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D83" s="2">
         <v>20.100000000000001</v>
       </c>
@@ -1996,8 +2108,10 @@
       <c r="G83" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="84" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="4:9" ht="60" x14ac:dyDescent="0.25">
       <c r="D84" s="1">
         <v>20.5</v>
       </c>
@@ -2011,8 +2125,16 @@
       <c r="G84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,F84:F91)</f>
+        <v>10.5,10,9.8,9.7,9.6,9.6,9.5,9.5</v>
+      </c>
+      <c r="I84" s="1" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,G84:G91)</f>
+        <v>0,20,40,60,90,120,180,240</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D85" s="1">
         <v>20.3</v>
       </c>
@@ -2027,7 +2149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D86" s="1">
         <v>20.2</v>
       </c>
@@ -2042,7 +2164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D87" s="1">
         <v>20.2</v>
       </c>
@@ -2057,7 +2179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D88" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -2072,7 +2194,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D89" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -2087,7 +2209,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D90" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -2102,7 +2224,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D91" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -2117,7 +2239,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
       <c r="F92" s="1" t="s">
         <v>14</v>
       </c>

--- a/2_semester/labs/lab_2_1_2/Book2.xlsx
+++ b/2_semester/labs/lab_2_1_2/Book2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\mipt_dgap\2_semester\labs\lab_2_1_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206FEBB5-1FD9-4B1A-8FEF-03B688B95AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB59676C-2D33-4E99-8931-DA283A017183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="675" windowWidth="21600" windowHeight="11385" xr2:uid="{9F71B547-3819-46F8-B34E-C27D7E74163A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F71B547-3819-46F8-B34E-C27D7E74163A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Измерение t_T</t>
   </si>
@@ -97,6 +97,36 @@
   </si>
   <si>
     <t>sigma full</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>xe</t>
+  </si>
+  <si>
+    <t>ye</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>y^2</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -489,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE74B5AD-BBF4-4C53-963D-9838BBD8F007}">
-  <dimension ref="C4:O92"/>
+  <dimension ref="C4:V92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,14 +533,15 @@
     <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="1"/>
     <col min="8" max="10" width="37.28515625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.85546875" style="1"/>
-    <col min="13" max="13" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="1"/>
-    <col min="15" max="15" width="35.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="1"/>
+    <col min="11" max="17" width="11.85546875" style="1" customWidth="1"/>
+    <col min="18" max="19" width="8.85546875" style="1"/>
+    <col min="20" max="20" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="1"/>
+    <col min="22" max="22" width="35.28515625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:22" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,23 +557,23 @@
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="3:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:22" ht="30" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>20.6</v>
       </c>
@@ -564,22 +595,22 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,G5:G12)</f>
         <v>0,20,40,55,70,100,120,160</v>
       </c>
-      <c r="K5" s="1">
+      <c r="R5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1">
+      <c r="S5" s="1">
         <v>9.9</v>
       </c>
-      <c r="M5" s="1">
+      <c r="T5" s="1">
         <f>16.2-14.4</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="N5" s="1">
-        <f>L5/(L5-M5)</f>
+      <c r="U5" s="1">
+        <f>S5/(S5-T5)</f>
         <v>1.2222222222222221</v>
       </c>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <v>20.5</v>
       </c>
@@ -593,25 +624,49 @@
       <c r="G6" s="1">
         <v>20</v>
       </c>
-      <c r="K6" s="1">
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="1">
+      <c r="S6" s="1">
         <v>9.1</v>
       </c>
-      <c r="M6" s="1">
+      <c r="T6" s="1">
         <f>16.1-14.3</f>
         <v>1.8000000000000007</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" ref="N6:N15" si="1">L6/(L6-M6)</f>
+      <c r="U6" s="1">
+        <f t="shared" ref="U6:U15" si="1">S6/(S6-T6)</f>
         <v>1.2465753424657535</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>20.5</v>
       </c>
@@ -625,25 +680,52 @@
       <c r="G7" s="1">
         <v>40</v>
       </c>
+      <c r="J7" s="1">
+        <f>M7*N7</f>
+        <v>1.2222222222222221</v>
+      </c>
       <c r="K7" s="1">
+        <f>M7^2</f>
+        <v>1.4938271604938269</v>
+      </c>
+      <c r="L7" s="1">
+        <f>N7^2</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P7" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="1">
         <v>3</v>
       </c>
-      <c r="L7" s="1">
+      <c r="S7" s="1">
         <v>9</v>
       </c>
-      <c r="M7" s="1">
+      <c r="T7" s="1">
         <f>16.2-14.35</f>
         <v>1.8499999999999996</v>
       </c>
-      <c r="N7" s="1">
+      <c r="U7" s="1">
         <f t="shared" si="1"/>
         <v>1.2587412587412588</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -657,22 +739,49 @@
       <c r="G8" s="1">
         <v>55</v>
       </c>
+      <c r="J8" s="1">
+        <f t="shared" ref="J8:J17" si="2">M8*N8</f>
+        <v>0.87260273972602742</v>
+      </c>
       <c r="K8" s="1">
+        <f t="shared" ref="K8:K17" si="3">M8^2</f>
+        <v>1.5539500844436107</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" ref="L8:L17" si="4">N8^2</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.2465753424657535</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P8" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="1">
         <v>4</v>
       </c>
-      <c r="L8" s="1">
+      <c r="S8" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M8" s="1">
+      <c r="T8" s="1">
         <f>16.2-14.3</f>
         <v>1.8999999999999986</v>
       </c>
-      <c r="N8" s="1">
+      <c r="U8" s="1">
         <f t="shared" si="1"/>
         <v>1.2567567567567566</v>
       </c>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -686,22 +795,49 @@
       <c r="G9" s="1">
         <v>70</v>
       </c>
-      <c r="L9" s="3">
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.88111888111888104</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5844295564575286</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.2587412587412588</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P9" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="3">
         <v>9.4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="T9" s="3">
         <f>16.6-14</f>
         <v>2.6000000000000014</v>
       </c>
-      <c r="N9" s="3">
+      <c r="U9" s="3">
         <f t="shared" si="1"/>
         <v>1.3823529411764708</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>20.3</v>
       </c>
@@ -715,25 +851,52 @@
       <c r="G10" s="1">
         <v>100</v>
       </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.87972972972972951</v>
+      </c>
       <c r="K10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5794375456537615</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.2567567567567566</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P10" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="1">
         <v>5</v>
       </c>
-      <c r="L10" s="1">
+      <c r="S10" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M10" s="1">
+      <c r="T10" s="1">
         <f>16.5-14</f>
         <v>2.5</v>
       </c>
-      <c r="N10" s="1">
+      <c r="U10" s="1">
         <f t="shared" si="1"/>
         <v>1.3424657534246576</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>20.3</v>
       </c>
@@ -747,22 +910,49 @@
       <c r="G11" s="1">
         <v>120</v>
       </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27647058823529419</v>
+      </c>
       <c r="K11" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9108996539792393</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.3823529411764708</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P11" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="1">
         <v>6</v>
       </c>
-      <c r="L11" s="1">
+      <c r="S11" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M11" s="1">
+      <c r="T11" s="1">
         <f>16.4-14.1</f>
         <v>2.2999999999999989</v>
       </c>
-      <c r="N11" s="1">
+      <c r="U11" s="1">
         <f t="shared" si="1"/>
         <v>1.3066666666666664</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <v>20.3</v>
       </c>
@@ -778,22 +968,49 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53698630136986303</v>
+      </c>
       <c r="K12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8022142991180334</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="4"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.3424657534246576</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P12" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="1">
         <v>7</v>
       </c>
-      <c r="L12" s="1">
+      <c r="S12" s="1">
         <v>9.5</v>
       </c>
-      <c r="M12" s="1">
+      <c r="T12" s="1">
         <f>16.4-14.2</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="N12" s="1">
+      <c r="U12" s="1">
         <f t="shared" si="1"/>
         <v>1.3013698630136985</v>
       </c>
     </row>
-    <row r="13" spans="3:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>20.5</v>
       </c>
@@ -815,22 +1032,49 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,G13:G20)</f>
         <v>0,20,45,75,90,105,140,170</v>
       </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65333333333333321</v>
+      </c>
       <c r="K13" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7073777777777772</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.3066666666666664</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P13" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" s="1">
         <v>8</v>
       </c>
-      <c r="L13" s="1">
+      <c r="S13" s="1">
         <v>9.4</v>
       </c>
-      <c r="M13" s="1">
+      <c r="T13" s="1">
         <f>16.3-14.2</f>
         <v>2.1000000000000014</v>
       </c>
-      <c r="N13" s="1">
+      <c r="U13" s="1">
         <f t="shared" si="1"/>
         <v>1.2876712328767126</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -844,22 +1088,49 @@
       <c r="G14" s="1">
         <v>20</v>
       </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65068493150684925</v>
+      </c>
       <c r="K14" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6935635203602923</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.3013698630136985</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P14" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="1">
         <v>9</v>
       </c>
-      <c r="L14" s="1">
+      <c r="S14" s="1">
         <v>9.6</v>
       </c>
-      <c r="M14" s="1">
+      <c r="T14" s="1">
         <f>16.4-14.2</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="N14" s="1">
+      <c r="U14" s="1">
         <f t="shared" si="1"/>
         <v>1.2972972972972971</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -873,22 +1144,49 @@
       <c r="G15" s="1">
         <v>45</v>
       </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9013698630136987</v>
+      </c>
       <c r="K15" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6580972039782329</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.2876712328767126</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P15" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" s="1">
         <v>10</v>
       </c>
-      <c r="L15" s="1">
+      <c r="S15" s="1">
         <v>9.5</v>
       </c>
-      <c r="M15" s="1">
+      <c r="T15" s="1">
         <f>16.4-14.2</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="N15" s="1">
+      <c r="U15" s="1">
         <f t="shared" si="1"/>
         <v>1.3013698630136985</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>20</v>
       </c>
@@ -902,8 +1200,35 @@
       <c r="G16" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64864864864864857</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6829802775748717</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.2972972972972971</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P16" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <v>20</v>
       </c>
@@ -917,8 +1242,35 @@
       <c r="G17" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65068493150684925</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6935635203602923</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.3013698630136985</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="P17" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -932,8 +1284,28 @@
       <c r="G18" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J18" s="1">
+        <f>AVERAGE(J7:J17)</f>
+        <v>0.74307747003739955</v>
+      </c>
+      <c r="K18" s="1">
+        <f>AVERAGE(K7:K17)</f>
+        <v>1.6691218727452244</v>
+      </c>
+      <c r="L18" s="1">
+        <f>AVERAGE(L7:L17)</f>
+        <v>0.37818181818181817</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" ref="M18:N18" si="5">AVERAGE(M7:M17)</f>
+        <v>1.2912262906959266</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="5"/>
+        <v>0.58181818181818179</v>
+      </c>
+    </row>
+    <row r="19" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -947,17 +1319,17 @@
       <c r="G19" s="1">
         <v>140</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <v>19.899999999999999</v>
       </c>
@@ -973,19 +1345,27 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="M20" s="1">
-        <f>AVERAGE(N20:N30)</f>
+      <c r="J20" s="6"/>
+      <c r="K20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="1">
+        <f>(J18-M18*N18)/(L18-N18^2)</f>
+        <v>-0.20624103968080837</v>
+      </c>
+      <c r="T20" s="1">
+        <f>AVERAGE(U20:U30)</f>
         <v>1.2821136256478722</v>
       </c>
-      <c r="N20" s="1">
+      <c r="U20" s="1">
         <v>1.2222222222222221</v>
       </c>
-      <c r="O20" s="1">
-        <f>(N20-$M$20)^2</f>
+      <c r="V20" s="1">
+        <f>(U20-$T$20)^2</f>
         <v>3.5869802042939767E-3</v>
       </c>
     </row>
-    <row r="21" spans="4:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>20.5</v>
       </c>
@@ -1007,15 +1387,22 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,G21:G30)</f>
         <v>0,30,50,70,100,120,150,180,210,250</v>
       </c>
-      <c r="N21" s="1">
+      <c r="K21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="1">
+        <f>M18-L20*N18</f>
+        <v>1.4112210774193061</v>
+      </c>
+      <c r="U21" s="1">
         <v>1.2465753424657535</v>
       </c>
-      <c r="O21" s="1">
-        <f t="shared" ref="O21:O29" si="2">(N21-$M$20)^2</f>
+      <c r="V21" s="1">
+        <f t="shared" ref="V21:V29" si="6">(U21-$T$20)^2</f>
         <v>1.2629695715324618E-3</v>
       </c>
     </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -1029,15 +1416,15 @@
       <c r="G22" s="1">
         <v>30</v>
       </c>
-      <c r="N22" s="1">
+      <c r="U22" s="1">
         <v>1.2587412587412588</v>
       </c>
-      <c r="O22" s="1">
-        <f t="shared" si="2"/>
+      <c r="V22" s="1">
+        <f t="shared" si="6"/>
         <v>5.4626753481736121E-4</v>
       </c>
     </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D23" s="1">
         <v>20.2</v>
       </c>
@@ -1051,15 +1438,15 @@
       <c r="G23" s="1">
         <v>50</v>
       </c>
-      <c r="N23" s="1">
+      <c r="U23" s="1">
         <v>1.2567567567567566</v>
       </c>
-      <c r="O23" s="1">
-        <f t="shared" si="2"/>
+      <c r="V23" s="1">
+        <f t="shared" si="6"/>
         <v>6.4297079996122907E-4</v>
       </c>
     </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D24" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1073,15 +1460,15 @@
       <c r="G24" s="1">
         <v>70</v>
       </c>
-      <c r="N24" s="1">
+      <c r="U24" s="1">
         <v>1.3424657534246576</v>
       </c>
-      <c r="O24" s="1">
-        <f t="shared" si="2"/>
+      <c r="V24" s="1">
+        <f t="shared" si="6"/>
         <v>3.642379327185424E-3</v>
       </c>
     </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1095,15 +1482,15 @@
       <c r="G25" s="1">
         <v>100</v>
       </c>
-      <c r="N25" s="1">
+      <c r="U25" s="1">
         <v>1.3066666666666664</v>
       </c>
-      <c r="O25" s="1">
-        <f t="shared" si="2"/>
+      <c r="V25" s="1">
+        <f t="shared" si="6"/>
         <v>6.0285182327058989E-4</v>
       </c>
     </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D26" s="1">
         <v>20</v>
       </c>
@@ -1117,15 +1504,15 @@
       <c r="G26" s="1">
         <v>120</v>
       </c>
-      <c r="N26" s="1">
+      <c r="U26" s="1">
         <v>1.3013698630136985</v>
       </c>
-      <c r="O26" s="1">
-        <f t="shared" si="2"/>
+      <c r="V26" s="1">
+        <f t="shared" si="6"/>
         <v>3.7080267748904375E-4</v>
       </c>
     </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D27" s="1">
         <v>20</v>
       </c>
@@ -1139,15 +1526,15 @@
       <c r="G27" s="1">
         <v>150</v>
       </c>
-      <c r="N27" s="1">
+      <c r="U27" s="1">
         <v>1.2876712328767126</v>
       </c>
-      <c r="O27" s="1">
-        <f t="shared" si="2"/>
+      <c r="V27" s="1">
+        <f t="shared" si="6"/>
         <v>3.0886998110058574E-5</v>
       </c>
     </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D28" s="1">
         <v>20</v>
       </c>
@@ -1161,15 +1548,15 @@
       <c r="G28" s="1">
         <v>180</v>
       </c>
-      <c r="N28" s="1">
+      <c r="U28" s="1">
         <v>1.2972972972972971</v>
       </c>
-      <c r="O28" s="1">
-        <f t="shared" si="2"/>
+      <c r="V28" s="1">
+        <f t="shared" si="6"/>
         <v>2.3054388475754985E-4</v>
       </c>
     </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D29" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -1183,15 +1570,15 @@
       <c r="G29" s="1">
         <v>210</v>
       </c>
-      <c r="N29" s="1">
+      <c r="U29" s="1">
         <v>1.3013698630136985</v>
       </c>
-      <c r="O29" s="1">
-        <f t="shared" si="2"/>
+      <c r="V29" s="1">
+        <f t="shared" si="6"/>
         <v>3.7080267748904375E-4</v>
       </c>
     </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <v>19.8</v>
       </c>
@@ -1207,15 +1594,16 @@
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="N30" s="1" t="s">
+      <c r="J30" s="6"/>
+      <c r="U30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O30" s="1">
-        <f>SUM(O20:O29)</f>
+      <c r="V30" s="1">
+        <f>SUM(V20:V29)</f>
         <v>1.1287455498906739E-2</v>
       </c>
     </row>
-    <row r="31" spans="4:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:22" ht="30" x14ac:dyDescent="0.25">
       <c r="D31" s="1">
         <v>20.5</v>
       </c>
@@ -1237,15 +1625,15 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,G31:G38)</f>
         <v>0,40,60,80,120,180,240,300</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O31" s="1">
-        <f>SQRT(O30/10)</f>
+      <c r="V31" s="1">
+        <f>SQRT(V30/10)</f>
         <v>3.3596808626574548E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D32" s="1">
         <v>20.3</v>
       </c>
@@ -1260,7 +1648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="4:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:22" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <v>20.2</v>
       </c>
@@ -1274,15 +1662,15 @@
       <c r="G33" s="1">
         <v>60</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O33" s="1">
-        <f>M20*SQRT((0.05)^2+(0.1/10)^2+(0.1/2.5)^2)</f>
+      <c r="V33" s="1">
+        <f>T20*SQRT((0.05)^2+(0.1/10)^2+(0.1/2.5)^2)</f>
         <v>8.3090459537194267E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <v>20.2</v>
       </c>
@@ -1297,7 +1685,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="4:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:22" ht="30" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1311,15 +1699,15 @@
       <c r="G35" s="1">
         <v>120</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="U35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O35" s="1">
-        <f>SQRT(O31^2+O33^2)</f>
+      <c r="V35" s="1">
+        <f>SQRT(V31^2+V33^2)</f>
         <v>8.9625721843635889E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <v>20</v>
       </c>
@@ -1333,12 +1721,12 @@
       <c r="G36" s="1">
         <v>180</v>
       </c>
-      <c r="O36" s="1">
-        <f>O35/M20</f>
+      <c r="V36" s="1">
+        <f>V35/T20</f>
         <v>6.990466371367561E-2</v>
       </c>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <v>19.899999999999999</v>
       </c>
@@ -1353,7 +1741,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
         <v>19.899999999999999</v>
       </c>
@@ -1369,8 +1757,9 @@
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D39" s="3">
         <v>20.5</v>
       </c>
@@ -1386,8 +1775,9 @@
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D40" s="3">
         <v>20.2</v>
       </c>
@@ -1403,8 +1793,9 @@
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D41" s="3">
         <v>20.100000000000001</v>
       </c>
@@ -1420,8 +1811,9 @@
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D42" s="3">
         <v>20.100000000000001</v>
       </c>
@@ -1437,8 +1829,9 @@
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D43" s="3">
         <v>20</v>
       </c>
@@ -1454,8 +1847,9 @@
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D44" s="3">
         <v>20</v>
       </c>
@@ -1463,7 +1857,7 @@
         <v>10.6</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" ref="F44:F91" si="3">D44-E44</f>
+        <f t="shared" ref="F44:F91" si="7">D44-E44</f>
         <v>9.4</v>
       </c>
       <c r="G44" s="3">
@@ -1471,8 +1865,9 @@
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D45" s="3">
         <v>20</v>
       </c>
@@ -1480,7 +1875,7 @@
         <v>10.6</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.4</v>
       </c>
       <c r="G45" s="3">
@@ -1488,8 +1883,9 @@
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D46" s="4">
         <v>20</v>
       </c>
@@ -1497,7 +1893,7 @@
         <v>10.6</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.4</v>
       </c>
       <c r="G46" s="4">
@@ -1505,8 +1901,9 @@
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="4:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D47" s="1">
         <v>20.5</v>
       </c>
@@ -1514,7 +1911,7 @@
         <v>9.9</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.6</v>
       </c>
       <c r="G47" s="1">
@@ -1529,7 +1926,7 @@
         <v>0,20,45,70,100,120,150,180,240</v>
       </c>
     </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D48" s="1">
         <v>20.399999999999999</v>
       </c>
@@ -1537,14 +1934,14 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.199999999999999</v>
       </c>
       <c r="G48" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D49" s="1">
         <v>20.3</v>
       </c>
@@ -1552,14 +1949,14 @@
         <v>10.3</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="G49" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D50" s="1">
         <v>20.2</v>
       </c>
@@ -1567,14 +1964,14 @@
         <v>10.4</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G50" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D51" s="1">
         <v>20.2</v>
       </c>
@@ -1582,14 +1979,14 @@
         <v>10.4</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G51" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D52" s="1">
         <v>20.2</v>
       </c>
@@ -1597,14 +1994,14 @@
         <v>10.4</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G52" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D53" s="1">
         <v>20.2</v>
       </c>
@@ -1612,14 +2009,14 @@
         <v>10.4</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G53" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D54" s="1">
         <v>20.2</v>
       </c>
@@ -1627,14 +2024,14 @@
         <v>10.4</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G54" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <v>20.2</v>
       </c>
@@ -1642,7 +2039,7 @@
         <v>10.3</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.8999999999999986</v>
       </c>
       <c r="G55" s="2">
@@ -1650,8 +2047,9 @@
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D56" s="1">
         <v>20.5</v>
       </c>
@@ -1659,7 +2057,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
       <c r="G56" s="1">
@@ -1674,7 +2072,7 @@
         <v>0,30,60,90,120,180,240</v>
       </c>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D57" s="1">
         <v>20.3</v>
       </c>
@@ -1682,14 +2080,14 @@
         <v>10.3</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="G57" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D58" s="1">
         <v>20.2</v>
       </c>
@@ -1697,14 +2095,14 @@
         <v>10.4</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G58" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D59" s="1">
         <v>20.2</v>
       </c>
@@ -1712,14 +2110,14 @@
         <v>10.4</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G59" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D60" s="1">
         <v>20.2</v>
       </c>
@@ -1727,14 +2125,14 @@
         <v>10.4</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G60" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D61" s="1">
         <v>20.2</v>
       </c>
@@ -1742,14 +2140,14 @@
         <v>10.4</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G61" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D62" s="2">
         <v>20.2</v>
       </c>
@@ -1757,7 +2155,7 @@
         <v>10.4</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G62" s="2">
@@ -1765,8 +2163,9 @@
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D63" s="1">
         <v>20.5</v>
       </c>
@@ -1774,7 +2173,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
       <c r="G63" s="1">
@@ -1789,7 +2188,7 @@
         <v>0,30,60,90,120,180,240</v>
       </c>
     </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D64" s="1">
         <v>20.3</v>
       </c>
@@ -1797,14 +2196,14 @@
         <v>10.4</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9</v>
       </c>
       <c r="G64" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D65" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1812,14 +2211,14 @@
         <v>10.5</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G65" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D66" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1827,14 +2226,14 @@
         <v>10.6</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G66" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D67" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1842,14 +2241,14 @@
         <v>10.6</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G67" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D68" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1857,14 +2256,14 @@
         <v>10.6</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G68" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D69" s="2">
         <v>20.100000000000001</v>
       </c>
@@ -1872,7 +2271,7 @@
         <v>10.6</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G69" s="2">
@@ -1880,8 +2279,9 @@
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D70" s="1">
         <v>20.5</v>
       </c>
@@ -1889,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
       <c r="G70" s="1">
@@ -1904,7 +2304,7 @@
         <v>0,30,60,90,120,180,240</v>
       </c>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D71" s="1">
         <v>20.2</v>
       </c>
@@ -1912,14 +2312,14 @@
         <v>10.4</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G71" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D72" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1927,14 +2327,14 @@
         <v>10.5</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G72" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D73" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1942,14 +2342,14 @@
         <v>10.5</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G73" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D74" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -1957,14 +2357,14 @@
         <v>10.6</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G74" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D75" s="1">
         <v>20</v>
       </c>
@@ -1972,14 +2372,14 @@
         <v>10.6</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.4</v>
       </c>
       <c r="G75" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D76" s="2">
         <v>20</v>
       </c>
@@ -1987,7 +2387,7 @@
         <v>10.6</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.4</v>
       </c>
       <c r="G76" s="2">
@@ -1995,8 +2395,9 @@
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="4:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D77" s="1">
         <v>20.5</v>
       </c>
@@ -2019,7 +2420,7 @@
         <v>0,30,60,90,120,180,240</v>
       </c>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D78" s="1">
         <v>20.3</v>
       </c>
@@ -2027,14 +2428,14 @@
         <v>10.4</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9</v>
       </c>
       <c r="G78" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D79" s="1">
         <v>20.2</v>
       </c>
@@ -2042,14 +2443,14 @@
         <v>10.4</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G79" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D80" s="1">
         <v>20.2</v>
       </c>
@@ -2057,14 +2458,14 @@
         <v>10.5</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="G80" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D81" s="1">
         <v>20.2</v>
       </c>
@@ -2072,14 +2473,14 @@
         <v>10.5</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="G81" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D82" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -2087,14 +2488,14 @@
         <v>10.5</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G82" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D83" s="2">
         <v>20.100000000000001</v>
       </c>
@@ -2102,7 +2503,7 @@
         <v>10.5</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G83" s="2">
@@ -2110,8 +2511,9 @@
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="4:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D84" s="1">
         <v>20.5</v>
       </c>
@@ -2119,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
       <c r="G84" s="1">
@@ -2134,7 +2536,7 @@
         <v>0,20,40,60,90,120,180,240</v>
       </c>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D85" s="1">
         <v>20.3</v>
       </c>
@@ -2142,14 +2544,14 @@
         <v>10.3</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="G85" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D86" s="1">
         <v>20.2</v>
       </c>
@@ -2157,14 +2559,14 @@
         <v>10.4</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.7999999999999989</v>
       </c>
       <c r="G86" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D87" s="1">
         <v>20.2</v>
       </c>
@@ -2172,14 +2574,14 @@
         <v>10.5</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="G87" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D88" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -2187,14 +2589,14 @@
         <v>10.5</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G88" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D89" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -2202,14 +2604,14 @@
         <v>10.5</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="G89" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D90" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -2217,14 +2619,14 @@
         <v>10.6</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G90" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D91" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -2232,14 +2634,14 @@
         <v>10.6</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.5000000000000018</v>
       </c>
       <c r="G91" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F92" s="1" t="s">
         <v>14</v>
       </c>
